--- a/моя база.xlsx
+++ b/моя база.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Светлана\PycharmProjects\online_shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Светлана\PycharmProjects\autoshop2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC0D9F3-66B8-44BC-B330-27E6793C8001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DA0B65-ED4C-4458-95B5-A99AF404B31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6337,7 +6337,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;?\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -6462,9 +6462,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6477,7 +6477,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6771,15 +6771,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0918E070-43A0-4535-B313-5ED3381295CE}">
   <dimension ref="A1:E1631"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="B433" sqref="B433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -9317,7 +9317,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>1268</v>
       </c>
